--- a/Szkolenie Excel 2018/7 WALIDACJA.xlsx
+++ b/Szkolenie Excel 2018/7 WALIDACJA.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Liczba sztuk</t>
   </si>
@@ -88,17 +88,25 @@
     <t>Smolarek</t>
   </si>
   <si>
-    <t>tylko pracownicy</t>
-  </si>
-  <si>
-    <t>tylko dozwolone</t>
-  </si>
-  <si>
-    <t>tylko pełne liczby 
+    <t>Minimum 1000zł</t>
+  </si>
+  <si>
+    <t>Komentarz</t>
+  </si>
+  <si>
+    <t>skaner,drukarka
+monitor</t>
+  </si>
+  <si>
+    <t>tylko pełne liczby, 
 co najmniej 3</t>
   </si>
   <si>
-    <t>Minimum 1000zł</t>
+    <t>Maksymalnie 20 znaków</t>
+  </si>
+  <si>
+    <t>tylko pracownicy
+z listy</t>
   </si>
 </sst>
 </file>
@@ -611,7 +619,7 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -637,6 +645,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -991,18 +1007,19 @@
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1020,14 +1037,16 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J3"/>
@@ -1037,7 +1056,8 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="15"/>
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1046,7 +1066,8 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="14"/>
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1056,7 +1077,8 @@
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="14"/>
+      <c r="H6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1065,7 +1087,8 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="14"/>
+      <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1074,7 +1097,8 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="14"/>
+      <c r="H8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1083,7 +1107,8 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="14"/>
+      <c r="H9" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1092,7 +1117,8 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="14"/>
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1101,35 +1127,39 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="14"/>
+      <c r="H11" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.4">
+    <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1139,6 +1169,14 @@
     <row r="203" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10">
+      <formula1>20</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11">
+      <formula1>1000</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Szkolenie Excel 2018/7 WALIDACJA.xlsx
+++ b/Szkolenie Excel 2018/7 WALIDACJA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="696" windowWidth="15480" windowHeight="11580" tabRatio="602"/>
+    <workbookView xWindow="480" yWindow="690" windowWidth="15480" windowHeight="11580" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="PW" sheetId="1" r:id="rId1"/>
@@ -1007,20 +1007,20 @@
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1054,7 +1054,9 @@
     <row r="4" spans="1:10">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="15"/>
       <c r="H4" s="16" t="s">
@@ -1169,12 +1171,15 @@
     <row r="203" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10">
       <formula1>20</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11">
       <formula1>1000</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
+      <formula1>3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Szkolenie Excel 2018/7 WALIDACJA.xlsx
+++ b/Szkolenie Excel 2018/7 WALIDACJA.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1054,9 +1054,7 @@
     <row r="4" spans="1:10">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9">
-        <v>4</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="15"/>
       <c r="H4" s="16" t="s">
@@ -1066,7 +1064,9 @@
     <row r="5" spans="1:10">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="14"/>
       <c r="H5" s="16" t="s">
@@ -1171,8 +1171,8 @@
     <row r="203" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10">
+  <dataValidations count="5">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11">
       <formula1>20</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11">
@@ -1181,6 +1181,12 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
       <formula1>3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B11">
+      <formula1>$H$4:$H$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11">
+      <formula1>"skaner,drukarka,monitor"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Szkolenie Excel 2018/7 WALIDACJA.xlsx
+++ b/Szkolenie Excel 2018/7 WALIDACJA.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1064,9 +1064,7 @@
     <row r="5" spans="1:10">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="14"/>
       <c r="H5" s="16" t="s">
@@ -1171,23 +1169,6 @@
     <row r="203" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11">
-      <formula1>20</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11">
-      <formula1>1000</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
-      <formula1>3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B11">
-      <formula1>$H$4:$H$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11">
-      <formula1>"skaner,drukarka,monitor"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
